--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="41" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>Khách không sửa</t>
   </si>
 </sst>
 </file>
@@ -658,6 +661,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,30 +702,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1123,58 +1126,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1202,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,15 +1250,25 @@
         <v>68</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1286,7 +1299,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1328,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1344,7 +1357,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1373,7 +1386,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1415,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1444,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1462,7 +1475,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1504,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1520,7 +1533,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1562,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1712,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2008,7 +2021,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2200,7 +2213,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2318,7 +2331,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -2779,13 +2792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2797,6 +2803,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2807,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2840,43 +2853,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2921,58 +2934,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -2997,23 +3010,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,7 +3074,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3096,15 +3109,25 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3133,7 +3156,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3162,7 +3185,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3191,7 +3214,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3220,7 +3243,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3249,7 +3272,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3280,7 +3303,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3309,7 +3332,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3338,7 +3361,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3367,7 +3390,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3517,7 +3540,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3826,7 +3849,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4018,7 +4041,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4136,7 +4159,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4597,13 +4620,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4615,6 +4631,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4658,43 +4681,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4739,58 +4762,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="74"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4815,23 +4838,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="79"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4857,7 +4880,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4888,7 +4911,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4917,7 +4940,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4946,7 +4969,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4975,7 +4998,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5004,7 +5027,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5033,7 +5056,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5064,7 +5087,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5093,7 +5116,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5122,7 +5145,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5151,7 +5174,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6382,13 +6405,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6400,6 +6416,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_ATVietNam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_ATVietNam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="41" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -661,6 +661,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,32 +700,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,43 +1045,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1126,58 +1126,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1202,23 +1202,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,9 @@
       <c r="B6" s="61">
         <v>44691</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44692</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -1268,7 +1270,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1299,7 +1301,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1330,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1359,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1388,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1446,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1475,7 +1477,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1533,7 +1535,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1564,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2792,6 +2794,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2803,13 +2812,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2820,8 +2822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="B6:R7"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2853,43 +2855,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2934,58 +2936,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -3010,23 +3012,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,7 +3038,9 @@
       <c r="B6" s="61">
         <v>44691</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44692</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -3074,7 +3078,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3089,7 +3093,9 @@
       <c r="B7" s="61">
         <v>44691</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44692</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -3127,7 +3133,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3156,7 +3162,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3191,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3214,7 +3220,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3243,7 +3249,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3272,7 +3278,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3303,7 +3309,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +3338,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3361,7 +3367,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3390,7 +3396,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4620,6 +4626,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4631,13 +4644,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4648,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4681,43 +4687,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4762,58 +4768,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4838,49 +4844,73 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44692</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041182814</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4892,26 +4922,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44692</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860906041127124</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="G7" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="I7" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4921,26 +4975,52 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="B8" s="61">
+        <v>44691</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44692</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="38">
+        <v>862631039274849</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="48"/>
+      <c r="I8" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4969,7 +5049,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4998,7 +5078,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5027,7 +5107,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5056,7 +5136,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5087,7 +5167,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5116,7 +5196,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5145,7 +5225,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5174,7 +5254,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5325,7 +5405,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5634,7 +5714,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5826,7 +5906,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5944,7 +6024,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6405,6 +6485,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6416,13 +6503,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
